--- a/Basic knowledge about C programming.xlsx
+++ b/Basic knowledge about C programming.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Clone\C-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20711925-F9A4-4634-9371-9D104AE2F29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC95D6-DE86-4301-9289-415C54286A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="2" r:id="rId1"/>
-    <sheet name="Pointer size" sheetId="1" r:id="rId2"/>
-    <sheet name="String" sheetId="3" r:id="rId3"/>
-    <sheet name="Program memory layout" sheetId="4" r:id="rId4"/>
+    <sheet name="Storage class" sheetId="7" r:id="rId2"/>
+    <sheet name="Format specifier" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Pointer size" sheetId="1" r:id="rId5"/>
+    <sheet name="String" sheetId="3" r:id="rId6"/>
+    <sheet name="Program memory layout" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>Table of content</t>
   </si>
@@ -379,19 +382,24 @@
   <si>
     <t>Mỗi chương trình có 1 vùng nhớ riêng nhưng memory layout thì giống nhau</t>
   </si>
+  <si>
+    <t>Chỉ thị định dạng dữ liệu là gì?</t>
+  </si>
+  <si>
+    <t>Format specifier</t>
+  </si>
+  <si>
+    <t>Lớp lưu trữ là gì?</t>
+  </si>
+  <si>
+    <t>Storage class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,88 +513,79 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1323,14 +1322,26 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="3"/>
@@ -1389,6 +1400,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B2237-91FF-47C3-9542-AEC6F2D91B60}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872E56E9-02B6-4D98-ADB4-FDF7BA9262D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF95F8D-74D6-465F-909D-82BB1FF567F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L53"/>
   <sheetViews>
@@ -1486,73 +1537,73 @@
       <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="9">
+      <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="3:12" ht="30" customHeight="1">
-      <c r="C21" s="9">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="3:12" ht="39" customHeight="1">
-      <c r="C22" s="9">
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="4" t="s">
@@ -1570,12 +1621,12 @@
       <c r="G24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="3">
@@ -1593,12 +1644,12 @@
       <c r="G25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="3">
@@ -1616,12 +1667,12 @@
       <c r="G26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="3">
@@ -1639,12 +1690,12 @@
       <c r="G27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="3">
@@ -1662,104 +1713,104 @@
       <c r="G28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="14">
+      <c r="C29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="14">
+      <c r="C30" s="7">
         <v>6</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="C31" s="14">
+      <c r="C31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="3:12">
-      <c r="C32" s="14">
+      <c r="C32" s="7">
         <v>8</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
@@ -1770,21 +1821,21 @@
       <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="16" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="C37" s="9">
+      <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -1792,16 +1843,16 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="C38" s="9">
+      <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -1809,33 +1860,33 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="2:11" ht="33" customHeight="1">
-      <c r="C39" s="9">
+      <c r="C39" s="3">
         <v>3</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="22" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="2:11" ht="39.6" customHeight="1">
-      <c r="C40" s="9">
+      <c r="C40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -1843,16 +1894,16 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" spans="2:11" ht="34.799999999999997" customHeight="1">
-      <c r="C41" s="9">
+      <c r="C41" s="3">
         <v>5</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -1860,13 +1911,13 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="1" t="s">
@@ -1894,12 +1945,12 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="C48" s="29" t="s">
+      <c r="C48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="C49" s="29" t="s">
+      <c r="C49" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1925,22 +1976,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:L21"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:L22"/>
@@ -1948,19 +1989,29 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95D46D9-C490-405E-9D52-4198F41067C1}">
   <dimension ref="B2:C25"/>
   <sheetViews>
@@ -1979,17 +2030,17 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2009,7 +2060,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2034,25 +2085,22 @@
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="29"/>
-    </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2062,17 +2110,17 @@
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2087,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC5F631-8096-40C6-A1BA-FB2633EDC39E}">
   <dimension ref="H20:H21"/>
   <sheetViews>

--- a/Basic knowledge about C programming.xlsx
+++ b/Basic knowledge about C programming.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Clone\C-programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC95D6-DE86-4301-9289-415C54286A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D99F74-C05B-49FF-ACF7-9897E6F3CC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="2" r:id="rId1"/>
-    <sheet name="Storage class" sheetId="7" r:id="rId2"/>
-    <sheet name="Format specifier" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Type qualifier" sheetId="8" r:id="rId2"/>
+    <sheet name="Storage class" sheetId="7" r:id="rId3"/>
+    <sheet name="Format specifier" sheetId="5" r:id="rId4"/>
     <sheet name="Pointer size" sheetId="1" r:id="rId5"/>
     <sheet name="String" sheetId="3" r:id="rId6"/>
     <sheet name="Program memory layout" sheetId="4" r:id="rId7"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
   <si>
     <t>Table of content</t>
   </si>
@@ -51,9 +49,6 @@
   </si>
   <si>
     <t>Nội dung</t>
-  </si>
-  <si>
-    <t>Refer</t>
   </si>
   <si>
     <t>Kích thước của con trỏ là bao nhiêu byte?</t>
@@ -394,12 +389,193 @@
   <si>
     <t>Storage class</t>
   </si>
+  <si>
+    <t>Nhập chuỗi bằng scanf() vào con trỏ char*</t>
+  </si>
+  <si>
+    <t>Cần cấp phát bộ nhớ trước, chương trình sẽ lỗi (crash hoặc undefined behavior)</t>
+  </si>
+  <si>
+    <t>char* str;</t>
+  </si>
+  <si>
+    <t>scanf("%s", str);  // ❌ Sai: str chưa trỏ tới vùng nhớ nào → crash</t>
+  </si>
+  <si>
+    <t>char* str = malloc(100);  // cấp phát 100 byte</t>
+  </si>
+  <si>
+    <t>if (str == NULL) return 1;</t>
+  </si>
+  <si>
+    <t>printf("Nhap chuoi: ");</t>
+  </si>
+  <si>
+    <t>scanf("%s", str);  // nhập chuỗi vào vùng nhớ đã cấp</t>
+  </si>
+  <si>
+    <t>printf("Chuoi ban nhap: %s\n", str);</t>
+  </si>
+  <si>
+    <t>char str[100];</t>
+  </si>
+  <si>
+    <t>scanf("%s", str);  // ✔️ An toàn hơn nếu kích thước đủ</t>
+  </si>
+  <si>
+    <t>Chỉ thị định dạng dự liệu dùng ở đâu?</t>
+  </si>
+  <si>
+    <t>Dùng cho hàm scanf() và printf()</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>%ld</t>
+  </si>
+  <si>
+    <t>long int</t>
+  </si>
+  <si>
+    <t>Viết tắt của long decimal integer</t>
+  </si>
+  <si>
+    <t>%d</t>
+  </si>
+  <si>
+    <t>Viết tắt của decimal</t>
+  </si>
+  <si>
+    <t>%u</t>
+  </si>
+  <si>
+    <t>usigned long int</t>
+  </si>
+  <si>
+    <t>%lu</t>
+  </si>
+  <si>
+    <t>Viết tắt của usigned</t>
+  </si>
+  <si>
+    <t>Viết tắt của long unsigned</t>
+  </si>
+  <si>
+    <t>%f</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>%lf</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>%c</t>
+  </si>
+  <si>
+    <t>%s</t>
+  </si>
+  <si>
+    <t>char*</t>
+  </si>
+  <si>
+    <t>Tiền tố điều chỉnh kích thước số nguyên int</t>
+  </si>
+  <si>
+    <t>short, long, unsigned</t>
+  </si>
+  <si>
+    <t>short có kích thước 2byte</t>
+  </si>
+  <si>
+    <t>unsigned int,
+unsigned short</t>
+  </si>
+  <si>
+    <t>int, short</t>
+  </si>
+  <si>
+    <t>short và long có thể đi kèm với int hoặc không</t>
+  </si>
+  <si>
+    <t>long thì có kích thước 8byte</t>
+  </si>
+  <si>
+    <t>Storage class dùng để làm gì?</t>
+  </si>
+  <si>
+    <t>Quy định biến được lưu ở đâu, tồn tại bao lâu, và phạm vi truy cập (scope) của nó là gì</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>*Biến cục bộ là những biến được khai báo trong hàm hoặc block {}</t>
+  </si>
+  <si>
+    <t>Biểu thị biến số đã được khai báo ở đâu đó, ở một file nào đó rồi và chia sẻ giá trị, quyền sử dụng giữa các file trong chương trình</t>
+  </si>
+  <si>
+    <t>Mặc định cho biến cục bộ, không cần viết từ khóa này khi khai báo biến</t>
+  </si>
+  <si>
+    <t>Dùng cho biến cục bộ, biến được lưu trên thanh ghi của CPU để tiện sử dụng, tính toán</t>
+  </si>
+  <si>
+    <t>Biến được lưu ở vùng Initialized data, tồn tại đến cuối chương trình. Dùng cho biến toàn cục của một file thì biến đó chỉ được sử dụng trong file đó. Dùng cho biến cục bộ của một hàm thì mỗi lần gọi hàm sẽ không bị khởi tạo lại từ đầu mà lưu giá trị từ lần gọi hàm trước.</t>
+  </si>
+  <si>
+    <t>Type qualifier là gì?</t>
+  </si>
+  <si>
+    <t>Type qualifier</t>
+  </si>
+  <si>
+    <t>Là tiền tố để điều khiển cách truy cập hoặc sử dụng giá trị của biến</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Không thể thay đổi giá trị của biến</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>Giá trị của biến có thể thay đổi ngoài chương trình, đột ngột, bất ngờ nên Compiler không được tối ưu</t>
+  </si>
+  <si>
+    <t>*Trong C++ có từ khóa constexpr</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +610,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -515,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -532,6 +716,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,51 +740,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1266,14 +1479,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" ht="19.5">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1285,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1293,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1304,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1315,10 +1528,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1326,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1337,16 +1550,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="3"/>
@@ -1393,6 +1612,9 @@
     <hyperlink ref="E5" location="'Pointer size'!A1" display="'Pointer size'!A1" xr:uid="{AAC123B0-CC48-4E1C-8BB5-7F9ADAF62C69}"/>
     <hyperlink ref="E6" location="String!A1" display="String" xr:uid="{C9F0A6E3-5B3C-45D5-9326-3ABE7DBBCC93}"/>
     <hyperlink ref="E7" location="'Program memory layout'!A1" display="Program memory layout" xr:uid="{A954754C-BCBC-4BC3-A290-FBA201F46CF0}"/>
+    <hyperlink ref="E8" location="'Format specifier'!A1" display="Format specifier" xr:uid="{C7EDB28C-E82A-4AF5-A56F-B7F0D5AC1AC7}"/>
+    <hyperlink ref="E9" location="'Storage class'!A1" display="Storage class" xr:uid="{CA1AECF4-AC5A-4895-BE68-F420B47341A2}"/>
+    <hyperlink ref="E10" location="'Type qualifier'!A1" display="Type qualifier" xr:uid="{02CB3F9C-0B4E-4935-AAD3-1840F637D3B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1400,41 +1622,436 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B2237-91FF-47C3-9542-AEC6F2D91B60}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428CFC40-FF6E-4024-9B60-DE3D94D4FFEE}">
+  <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="45" customHeight="1">
+      <c r="C7" s="35">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872E56E9-02B6-4D98-ADB4-FDF7BA9262D5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7B2237-91FF-47C3-9542-AEC6F2D91B60}">
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C5" sqref="C5:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="46.9" customHeight="1">
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="2:12" ht="41.65" customHeight="1">
+      <c r="C7" s="35">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="2:12" ht="82.5" customHeight="1">
+      <c r="C8" s="35">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="2:12" ht="64.5" customHeight="1">
+      <c r="C9" s="35">
+        <v>4</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF95F8D-74D6-465F-909D-82BB1FF567F2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872E56E9-02B6-4D98-ADB4-FDF7BA9262D5}">
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" ht="28.5">
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="10">
+        <v>6</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="10">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1445,543 +2062,547 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="3:12" ht="30" customHeight="1">
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="D21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="3:12" ht="39" customHeight="1">
       <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="D22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="H24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="H25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="H26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="H27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="3">
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="7">
         <v>5</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="G29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="7">
         <v>6</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="7">
         <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="7">
         <v>8</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="2:11">
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
+      <c r="D37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="2:11">
       <c r="C38" s="3">
         <v>2</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
+      <c r="D38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="2:11" ht="33" customHeight="1">
       <c r="C39" s="3">
         <v>3</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
+      <c r="D39" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="2:11" ht="39.6" customHeight="1">
       <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
+      <c r="D40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="2:11" ht="34.799999999999997" customHeight="1">
       <c r="C41" s="3">
         <v>5</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
+      <c r="D41" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:L22"/>
@@ -1994,17 +2615,13 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
     <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2013,125 +2630,181 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95D46D9-C490-405E-9D52-4198F41067C1}">
-  <dimension ref="B2:C25"/>
+  <dimension ref="B2:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="2:3">
+      <c r="C11" s="9" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="C15" s="9" t="s">
-        <v>80</v>
+      <c r="C15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="9" t="s">
+    <row r="20" spans="2:3">
+      <c r="C20" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row r="24" spans="2:3">
+      <c r="C24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="9" t="s">
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>87</v>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2141,16 +2814,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
